--- a/partslist.xlsx
+++ b/partslist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Parts</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">485-3072 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD card reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Adafruit/254?qs=sGAEpiMZZMu3sxpa5v1qro3UYtn2%252BmNbWMjWfahEPaY%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-254</t>
   </si>
 </sst>
 </file>
@@ -70,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,24 +101,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,24 +167,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,82 +315,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="90.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="104.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>4438</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>11.95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>3072</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>19.95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">F3*2+F4</f>
-        <v>43.85</v>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="n">
+        <f aca="false">F3*2+F4+F5*2</f>
+        <v>58.85</v>
       </c>
     </row>
   </sheetData>
